--- a/cloud-architecture/custom-apps-and-consolidation/weblogic-deployment-utility/files/wl_mpi_template_v2.xlsx
+++ b/cloud-architecture/custom-apps-and-consolidation/weblogic-deployment-utility/files/wl_mpi_template_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitras/Documents/GitHub/technology-engineering/cloud-architecture/custom-apps-and-consolidation/weblogic-deployment-utility/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A89C99-B661-824B-9B24-349C2EFB7E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3527E76-F47B-FE45-B6B9-606389B65913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{B64F34AB-D3C7-4981-B10D-C92E61FACA80}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17120" xr2:uid="{B64F34AB-D3C7-4981-B10D-C92E61FACA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Weblogic_Variables" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="234">
   <si>
     <t>is_lb_private</t>
   </si>
@@ -823,13 +823,7 @@
     <t>tenancy_ocid</t>
   </si>
   <si>
-    <t>ocid1.tenancy.oc1..aaaaaaaaxn3r3dh3lh5n5hyo6tkbtmwjvr4wzlahs3u76c4enhckxhy4kpaa</t>
-  </si>
-  <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>uk-london-1</t>
   </si>
   <si>
     <t>12.2.1.4</t>
@@ -924,12 +918,6 @@
   </si>
   <si>
     <t>wls_admin_password_id</t>
-  </si>
-  <si>
-    <t>ocid1.compartment.oc1….........................q</t>
-  </si>
-  <si>
-    <t>ocid1.vaultsecret.oc1.uk-london-1…...............xq</t>
   </si>
   <si>
     <t>ocid1.vcn.oc1.uk-london-1…....................ybaa</t>
@@ -1429,7 +1417,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1484,9 +1472,7 @@
       <c r="F2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
@@ -1530,9 +1516,7 @@
       <c r="F4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="22">
       <c r="A5" s="4" t="s">
@@ -1559,7 +1543,7 @@
     </row>
     <row r="6" spans="1:7" ht="22">
       <c r="A6" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>114</v>
@@ -1576,9 +1560,7 @@
       <c r="F6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
@@ -1712,7 +1694,7 @@
         <v>126</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1793,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAD7D21-5FBB-43B7-AA9F-F17D44E94A84}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1860,9 +1842,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
@@ -2109,7 +2089,7 @@
         <v>137</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22">
@@ -2185,7 +2165,7 @@
         <v>139</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2261,7 +2241,7 @@
         <v>141</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2348,11 +2328,40 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
@@ -2362,35 +2371,6 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" location="GUID-C543E630-2BBB-49C5-9E73-1E25DBCB8489__NOTE" display="https://docs.oracle.com/en/cloud/paas/weblogic-cloud/scripts/variables-terraform-scripts.html - GUID-C543E630-2BBB-49C5-9E73-1E25DBCB8489__NOTE" xr:uid="{4A95018F-8DA9-4F6C-8D05-34455C1A562B}"/>
@@ -3751,16 +3731,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E50"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="E46:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3809,24 +3789,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>127</v>
@@ -3841,30 +3821,30 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3873,13 +3853,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3936,24 +3916,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>127</v>
@@ -3968,26 +3948,26 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3996,13 +3976,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4011,13 +3991,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4026,13 +4006,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4041,13 +4021,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4102,26 +4082,26 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>127</v>
@@ -4138,55 +4118,55 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4237,24 +4217,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>127</v>
@@ -4269,30 +4249,30 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4301,13 +4281,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4316,13 +4296,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4331,13 +4311,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4346,13 +4326,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4405,24 +4385,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>127</v>
@@ -4437,30 +4417,30 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4469,13 +4449,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
